--- a/Data/Downloads/all_candidate_names.xlsx
+++ b/Data/Downloads/all_candidate_names.xlsx
@@ -6,7 +6,11 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="binay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duterte" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="poe" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="roxas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="santiago" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,15 +18,510 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>jejomar</t>
+  </si>
+  <si>
+    <t>binay</t>
+  </si>
+  <si>
+    <t>binayaran</t>
+  </si>
+  <si>
+    <t>ionnebinay</t>
+  </si>
+  <si>
+    <t>binayarang</t>
+  </si>
+  <si>
+    <t>binayad</t>
+  </si>
+  <si>
+    <t>rodrigo</t>
+  </si>
+  <si>
+    <t>digong</t>
+  </si>
+  <si>
+    <t>du30</t>
+  </si>
+  <si>
+    <t>duterte</t>
+  </si>
+  <si>
+    <t>🙏duterte</t>
+  </si>
+  <si>
+    <t>dudutertehin</t>
+  </si>
+  <si>
+    <t>duterteing</t>
+  </si>
+  <si>
+    <t>pdu30</t>
+  </si>
+  <si>
+    <t>duterte😂</t>
+  </si>
+  <si>
+    <t>du30ng</t>
+  </si>
+  <si>
+    <t>dutertem</t>
+  </si>
+  <si>
+    <t>bbmdu30for</t>
+  </si>
+  <si>
+    <t>naduterte</t>
+  </si>
+  <si>
+    <t>👊✊👮👏🔫🚬🍻👡🚓❌du30</t>
+  </si>
+  <si>
+    <t>duterteon1</t>
+  </si>
+  <si>
+    <t>dutertestop</t>
+  </si>
+  <si>
+    <t>rodydu30</t>
+  </si>
+  <si>
+    <t>duterte~</t>
+  </si>
+  <si>
+    <t>digong😂</t>
+  </si>
+  <si>
+    <t>duterteadministration</t>
+  </si>
+  <si>
+    <t>~duterte</t>
+  </si>
+  <si>
+    <t>dutertex</t>
+  </si>
+  <si>
+    <t>du30✊👊</t>
+  </si>
+  <si>
+    <t>duterte😌😌</t>
+  </si>
+  <si>
+    <t>tataydigong</t>
+  </si>
+  <si>
+    <t>dutertenews</t>
+  </si>
+  <si>
+    <t>makadu30</t>
+  </si>
+  <si>
+    <t>nagduterte</t>
+  </si>
+  <si>
+    <t>rodrigoduterte</t>
+  </si>
+  <si>
+    <t>dutertes</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>poe</t>
+  </si>
+  <si>
+    <t>poewszxc</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>poetic</t>
+  </si>
+  <si>
+    <t>graces</t>
+  </si>
+  <si>
+    <t>sengracepoe</t>
+  </si>
+  <si>
+    <t>poewhsz</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>roxas</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>maris</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>nightmarishly</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>pinakamaraming</t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>martínez</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>susmaryosep</t>
+  </si>
+  <si>
+    <t>marehab</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>marlyn</t>
+  </si>
+  <si>
+    <t>alimario</t>
+  </si>
+  <si>
+    <t>marcoses</t>
+  </si>
+  <si>
+    <t>maroxas</t>
+  </si>
+  <si>
+    <t>maranao</t>
+  </si>
+  <si>
+    <t>maranasan</t>
+  </si>
+  <si>
+    <t>umarte</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>humarap</t>
+  </si>
+  <si>
+    <t>marie</t>
+  </si>
+  <si>
+    <t>marlon</t>
+  </si>
+  <si>
+    <t>nightmare</t>
+  </si>
+  <si>
+    <t>marcosparin</t>
+  </si>
+  <si>
+    <t>marlwan</t>
+  </si>
+  <si>
+    <t>marasigan</t>
+  </si>
+  <si>
+    <t>marquez</t>
+  </si>
+  <si>
+    <t>marching</t>
+  </si>
+  <si>
+    <t>martyr</t>
+  </si>
+  <si>
+    <t>marcelino</t>
+  </si>
+  <si>
+    <t>maribojoc</t>
+  </si>
+  <si>
+    <t>martial</t>
+  </si>
+  <si>
+    <t>thisiskorinasanchezroxas</t>
+  </si>
+  <si>
+    <t>smartest</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>marinig</t>
+  </si>
+  <si>
+    <t>mariachi</t>
+  </si>
+  <si>
+    <t>jimboymartin</t>
+  </si>
+  <si>
+    <t>marine</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>marites</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>marawi</t>
+  </si>
+  <si>
+    <t>marce</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>jumar</t>
+  </si>
+  <si>
+    <t>summarily</t>
+  </si>
+  <si>
+    <t>bbmarcos</t>
+  </si>
+  <si>
+    <t>marciano</t>
+  </si>
+  <si>
+    <t>mariing</t>
+  </si>
+  <si>
+    <t>mariah</t>
+  </si>
+  <si>
+    <t>tatamarin</t>
+  </si>
+  <si>
+    <t>mareplyan</t>
+  </si>
+  <si>
+    <t>marcosian</t>
+  </si>
+  <si>
+    <t>magmamartial</t>
+  </si>
+  <si>
+    <t>smarter</t>
+  </si>
+  <si>
+    <t>marcventures</t>
+  </si>
+  <si>
+    <t>marolio</t>
+  </si>
+  <si>
+    <t>mara</t>
+  </si>
+  <si>
+    <t>marino</t>
+  </si>
+  <si>
+    <t>marami</t>
+  </si>
+  <si>
+    <t>marielle</t>
+  </si>
+  <si>
+    <t>maraming</t>
+  </si>
+  <si>
+    <t>marunong</t>
+  </si>
+  <si>
+    <t>mararanasan</t>
+  </si>
+  <si>
+    <t>marasa</t>
+  </si>
+  <si>
+    <t>mare</t>
+  </si>
+  <si>
+    <t>maritime</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>maremember</t>
+  </si>
+  <si>
+    <t>maresolba</t>
+  </si>
+  <si>
+    <t>marcos​</t>
+  </si>
+  <si>
+    <t>maray</t>
+  </si>
+  <si>
+    <t>samar</t>
+  </si>
+  <si>
+    <t>bookmark</t>
+  </si>
+  <si>
+    <t>marayaw</t>
+  </si>
+  <si>
+    <t>submarine</t>
+  </si>
+  <si>
+    <t>marangal</t>
+  </si>
+  <si>
+    <t>namamaril</t>
+  </si>
+  <si>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>remarkable</t>
+  </si>
+  <si>
+    <t>kaymariz</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>marka</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>bumaril</t>
+  </si>
+  <si>
+    <t>tamaraw</t>
+  </si>
+  <si>
+    <t>magmartial</t>
+  </si>
+  <si>
+    <t>maruhas</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>myanmar</t>
+  </si>
+  <si>
+    <t>marimar</t>
+  </si>
+  <si>
+    <t>margen</t>
+  </si>
+  <si>
+    <t>bongbongmarcos</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>smartmatic</t>
+  </si>
+  <si>
+    <t>maricaban</t>
+  </si>
+  <si>
+    <t>marinez</t>
+  </si>
+  <si>
+    <t>mariz</t>
+  </si>
+  <si>
+    <t>mariano</t>
+  </si>
+  <si>
+    <t>trademark</t>
+  </si>
+  <si>
+    <t>jejumar</t>
+  </si>
+  <si>
+    <t>jhonmarkgamon</t>
+  </si>
+  <si>
+    <t>maramin</t>
+  </si>
+  <si>
+    <t>roxases</t>
+  </si>
+  <si>
+    <t>mart</t>
+  </si>
+  <si>
+    <t>maricon</t>
+  </si>
+  <si>
+    <t>marijuana</t>
+  </si>
+  <si>
+    <t>camarines</t>
+  </si>
+  <si>
+    <t>maririnig</t>
+  </si>
+  <si>
+    <t>marcos</t>
+  </si>
+  <si>
+    <t>smartmagic</t>
+  </si>
+  <si>
+    <t>maramdaman</t>
+  </si>
+  <si>
+    <t>martinez</t>
+  </si>
+  <si>
+    <t>marginalized</t>
+  </si>
+  <si>
+    <t>kamara</t>
+  </si>
+  <si>
+    <t>marro</t>
+  </si>
+  <si>
+    <t>miriam</t>
+  </si>
+  <si>
+    <t>defensor</t>
+  </si>
   <si>
     <t>santiago</t>
-  </si>
-  <si>
-    <t>miriam</t>
-  </si>
-  <si>
-    <t>defensor</t>
   </si>
   <si>
     <t>©miriam</t>
@@ -377,6 +876,927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -392,27 +1812,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Downloads/all_candidate_names.xlsx
+++ b/Data/Downloads/all_candidate_names.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="4137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="4123">
   <si>
     <t>names</t>
   </si>
@@ -7607,9 +7607,6 @@
     <t>votebinay</t>
   </si>
   <si>
-    <t>binaynd</t>
-  </si>
-  <si>
     <t>pilalabankaybinay</t>
   </si>
   <si>
@@ -7658,12 +7655,6 @@
     <t>binay2x</t>
   </si>
   <si>
-    <t>binayaan</t>
-  </si>
-  <si>
-    <t>binayran</t>
-  </si>
-  <si>
     <t>binayhay</t>
   </si>
   <si>
@@ -7679,15 +7670,9 @@
     <t>binaysters</t>
   </si>
   <si>
-    <t>iamnancybinay</t>
-  </si>
-  <si>
     <t>binaynatics</t>
   </si>
   <si>
-    <t>binayarang</t>
-  </si>
-  <si>
     <t>binaybwisitsuplb</t>
   </si>
   <si>
@@ -7751,9 +7736,6 @@
     <t>presjejomar</t>
   </si>
   <si>
-    <t>jojobinay</t>
-  </si>
-  <si>
     <t>notobinayever</t>
   </si>
   <si>
@@ -7952,9 +7934,6 @@
     <t>bawalyanbinay</t>
   </si>
   <si>
-    <t>binayk</t>
-  </si>
-  <si>
     <t>binaymar</t>
   </si>
   <si>
@@ -7985,9 +7964,6 @@
     <t>binaydummies</t>
   </si>
   <si>
-    <t>binaym</t>
-  </si>
-  <si>
     <t>onlybinaytayo</t>
   </si>
   <si>
@@ -8330,9 +8306,6 @@
     <t>binay3</t>
   </si>
   <si>
-    <t>angbinayaranstation</t>
-  </si>
-  <si>
     <t>binaygate</t>
   </si>
   <si>
@@ -9428,9 +9401,6 @@
     <t>byepoe</t>
   </si>
   <si>
-    <t>gracesth</t>
-  </si>
-  <si>
     <t>poetangina</t>
   </si>
   <si>
@@ -9863,9 +9833,6 @@
     <t>poet</t>
   </si>
   <si>
-    <t>graceth</t>
-  </si>
-  <si>
     <t>ayawkopoe</t>
   </si>
   <si>
@@ -11180,22 +11147,13 @@
     <t>howtobeyoupoe</t>
   </si>
   <si>
-    <t>adoptgpoe</t>
-  </si>
-  <si>
     <t>dragrace</t>
   </si>
   <si>
-    <t>graceiscoming</t>
-  </si>
-  <si>
     <t>poe2019</t>
   </si>
   <si>
     <t>choicepoet</t>
-  </si>
-  <si>
-    <t>gracerighteousness</t>
   </si>
   <si>
     <t>poerful</t>
@@ -25547,7 +25505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A609"/>
+  <dimension ref="A1:A600"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25705,32 +25663,32 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>2553</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>684</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -25820,37 +25778,37 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>2575</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>738</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -26330,77 +26288,77 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>2676</v>
+        <v>934</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>2682</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>934</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>84</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -26570,47 +26528,47 @@
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>2722</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>1004</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="213" spans="1:1">
@@ -27955,52 +27913,52 @@
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>2998</v>
+        <v>383</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>383</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -28095,52 +28053,52 @@
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>3025</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>2021</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="519" spans="1:1">
@@ -28185,52 +28143,52 @@
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>3042</v>
+        <v>478</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>478</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="537" spans="1:1">
@@ -28290,92 +28248,92 @@
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>3062</v>
+        <v>519</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>3070</v>
+        <v>549</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>519</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>549</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="566" spans="1:1">
@@ -28551,51 +28509,6 @@
     <row r="600" spans="1:1">
       <c r="A600" t="s">
         <v>3112</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1">
-      <c r="A602" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1">
-      <c r="A603" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1">
-      <c r="A604" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1">
-      <c r="A605" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1">
-      <c r="A606" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1">
-      <c r="A607" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="608" spans="1:1">
-      <c r="A608" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="609" spans="1:1">
-      <c r="A609" t="s">
-        <v>3121</v>
       </c>
     </row>
   </sheetData>
@@ -28605,7 +28518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A650"/>
+  <dimension ref="A1:A645"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28618,3247 +28531,3222 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3122</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3123</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3124</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3126</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3127</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3128</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>3129</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3130</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3131</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3132</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3133</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3134</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3135</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3136</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3138</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>3139</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>3140</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>3141</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>3142</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>3143</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>3144</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>3145</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>3146</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>3148</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>3149</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>3150</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>3151</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>3152</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>3153</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>3154</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>3155</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>3156</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>3157</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>3159</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>3160</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>3161</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>3162</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>3163</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>3164</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>3165</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>3166</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>3167</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>3168</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>3170</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>3171</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>3172</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>3173</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>3174</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>3175</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>3176</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>3177</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>3178</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>3180</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>3181</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>3182</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>3183</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>3184</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>3185</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>3186</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>3187</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>3188</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>3189</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>3190</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>3192</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>3193</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>3194</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>3195</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>3196</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>3197</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>3198</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>3199</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>3200</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>3203</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>3204</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>3205</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>3206</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>3207</v>
+        <v>780</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>780</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>3208</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>3209</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>3210</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>3211</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>3212</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>3213</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>3214</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>3215</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>3216</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>3217</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>3218</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>3219</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>3220</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>3221</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>3222</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>3223</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>3225</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>3226</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>3227</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>3228</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>3229</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>3230</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>3231</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>3232</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>3233</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>3234</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>3236</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>3237</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>3238</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>3239</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>3240</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>3241</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>3242</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>3243</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>3244</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>3245</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>3247</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>3248</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>3249</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>3250</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>3251</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>3252</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>3253</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>3254</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>3255</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>3257</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>3258</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>3259</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>3260</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>3261</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>3262</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>3263</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>3264</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>3265</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>3266</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>3267</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>3269</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>3270</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>3271</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>3272</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>3273</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>3274</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>3275</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>3277</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>3278</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>3279</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>3280</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>3281</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>3282</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>3283</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>3284</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>3292</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>3293</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>3295</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>3297</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>3298</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>3299</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>3300</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>3301</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>3302</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>3303</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>3304</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>3305</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>3306</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>3309</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>3310</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>3311</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>3312</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>3313</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>3314</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>3315</v>
+        <v>121</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>3316</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>121</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>3317</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>3318</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>3320</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>3321</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>3322</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>3323</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>3324</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>3325</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>3326</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>3327</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>3328</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>3329</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>3330</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>3332</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>3333</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>3334</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>3335</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>3336</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>3337</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>3338</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>3339</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>3340</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>3342</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>3343</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>3344</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>3345</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>3346</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>3347</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>3348</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>3349</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>3350</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>3351</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>3353</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>3354</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>3355</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>3356</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>3357</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3358</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>3359</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>3360</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>3361</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>3362</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>3364</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>3365</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>3366</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>1056</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>3367</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>3368</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>3369</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>3370</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>3371</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>3372</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>3373</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>3374</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>3375</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>3376</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>2824</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>3377</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>3378</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>3379</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>3380</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>3381</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>3382</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>3383</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>3384</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>3385</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>3387</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>3388</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>3389</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>3390</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>3391</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>3392</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>3393</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>3394</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>3395</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>3396</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>1147</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>3397</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>3398</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>3399</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>3400</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>3401</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>3402</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>3403</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>3404</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>3405</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>3406</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>3407</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>2819</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>3408</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>3409</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>3410</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>3411</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>3412</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>3413</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>3414</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>3415</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>2859</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>3416</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>3417</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>3418</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>2862</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>3419</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>3420</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>3421</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>3422</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>3423</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>3424</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>3425</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>3426</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>3427</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>3428</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>3429</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>3430</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>2876</v>
+        <v>195</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>3431</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>195</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>3432</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>2879</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>3434</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>3435</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>3436</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>3437</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>2889</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>3438</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>3439</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>3441</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>3442</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>3443</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>3444</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>3445</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>3446</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>3447</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>3448</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>3449</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>3450</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>3452</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>3453</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>3454</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>2898</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>3455</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>3456</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>3457</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>3458</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>3459</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>3460</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>3461</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>3463</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>3464</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>3465</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>3466</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>3467</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>3468</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>3469</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>3470</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>3471</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>3473</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>3474</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>3475</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>3476</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>3477</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>3478</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>3479</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>3480</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>3481</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>3482</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>3484</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>3485</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>3486</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>3487</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>3488</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>3489</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>3490</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>3491</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>3492</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>3493</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>3495</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>3496</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>3497</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>3498</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>3499</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>1528</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>3500</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>3501</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>3502</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>1544</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>3503</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>3504</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>3506</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>3507</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>3508</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>2970</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>3509</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>3510</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>3511</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>3512</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>3513</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>3514</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>3516</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>3517</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>3518</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>3519</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>3520</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>3521</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>3522</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>3523</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>3524</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>3525</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>3526</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>3528</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>3529</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>3530</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>2978</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>3531</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>3532</v>
+        <v>350</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>1682</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>350</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>3533</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>3534</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>3535</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>3536</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>3538</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>3539</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>3540</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>3541</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>3542</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>3543</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>3544</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>3545</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>3546</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>3547</v>
+        <v>383</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>3548</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>383</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>3549</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>3550</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>3551</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>3552</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>3553</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>3554</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>3555</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>3556</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>3557</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>3558</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>3559</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>3009</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>3560</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>3561</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>3562</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>3563</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>3564</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>3565</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>3567</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>3568</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>3569</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>3571</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>3572</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>3573</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>3574</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>3575</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>3576</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>3577</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>3578</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>3579</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>1892</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>3580</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>3581</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>3583</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>3584</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>3585</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>3586</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>3587</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>3021</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>3588</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>3589</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>3590</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>3591</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>3592</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>3594</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>3595</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>3596</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>3597</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>3598</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>3599</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>3600</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>3601</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>3602</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>3604</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>3605</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>3606</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>3607</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>3608</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>3609</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>3610</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>3611</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>3612</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>3613</v>
+        <v>478</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>3614</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>478</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>3616</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>3621</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>3622</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>3624</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>3627</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>3628</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>3629</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>3630</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>3631</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>3632</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>3633</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>3634</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>3635</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>3636</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>3638</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>3639</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>3640</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>3641</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>3642</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>3643</v>
+        <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>3644</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>545</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>3645</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>3646</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>3647</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>3648</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>3649</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>3650</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>3651</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>3652</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>3653</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>3654</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>3655</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>3656</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>3657</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>3658</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>3659</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>3660</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>3661</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>2184</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>3662</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>3663</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>2186</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>3664</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>3665</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>3666</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>3667</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>3668</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>3669</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>3670</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>3671</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>3672</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>3673</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>3674</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>3675</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>3676</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>3677</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>3678</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>3679</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>3680</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>3681</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>3682</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>3683</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>3684</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>3685</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>3686</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>3687</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>3688</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>3689</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>3690</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>3691</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>3692</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>3693</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>3694</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>3695</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>3696</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>3697</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>3698</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>3699</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>3700</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>3701</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>3702</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>3703</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>3704</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>3705</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>3706</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>3707</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>3708</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>3709</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>3710</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>3711</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>3712</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>3713</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>3714</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>3715</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>3716</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>3717</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>3718</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>3719</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>3720</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>3721</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>3722</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>3723</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>3724</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>3725</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>3726</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>3727</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>3728</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>3729</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>3730</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>3731</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>3732</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>3733</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>3734</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>3735</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>3736</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>3737</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1">
-      <c r="A646" t="s">
-        <v>3739</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1">
-      <c r="A647" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1">
-      <c r="A648" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1">
-      <c r="A649" t="s">
-        <v>3742</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1">
-      <c r="A650" t="s">
-        <v>3743</v>
+        <v>3729</v>
       </c>
     </row>
   </sheetData>
@@ -31881,37 +31769,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3744</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3745</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3746</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3747</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>3748</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3749</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3750</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -31921,37 +31809,37 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3751</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3752</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>3753</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3754</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>3755</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>3756</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3757</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -31961,7 +31849,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>3758</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -31971,37 +31859,37 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>3759</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>3760</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>3761</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>3762</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>3763</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>3764</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>3765</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -32011,247 +31899,247 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>3766</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>3767</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>3768</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>3769</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>3770</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>3771</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>2596</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>3772</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>3773</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>3774</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>3775</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>3776</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>3777</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>3778</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>3779</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>3780</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>3781</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>3782</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>3783</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>3784</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>3785</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>3786</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>3787</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>3788</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>3789</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>3790</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>3791</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>3792</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>3793</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>3794</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>3795</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>3796</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>3797</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>2705</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>3798</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>3799</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>3800</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>3801</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>2683</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>3802</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>3803</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>3804</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>3805</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>3806</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>3807</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>3808</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>3809</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>3810</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>3811</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -32261,867 +32149,867 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>3812</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>3813</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>3814</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>3815</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>3816</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>3817</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>3818</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>3819</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>3820</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>3821</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>3822</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>3823</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>3824</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>3825</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>3826</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>3827</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>3828</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>3829</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>3830</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>3831</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>3832</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>3833</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>3834</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>3835</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>3836</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>3837</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>3838</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>3839</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>3840</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>3841</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>3842</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>3843</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>3844</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>3845</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>3846</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>3847</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>3848</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>3849</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>3850</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>3851</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>3852</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>3853</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>3854</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>3855</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>3856</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>3857</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>3858</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>3859</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>3860</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>3861</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>3862</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>3863</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>3864</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>3865</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>3866</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>3867</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>3868</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>3869</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>3870</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>3871</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>3872</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>3873</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>3874</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>3875</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>3876</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>3877</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>3878</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>2739</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>3879</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>3880</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>3881</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>3882</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>3883</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>3884</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>3885</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>3886</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>3887</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>3888</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>3889</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>3890</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>3891</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>3892</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>3893</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>3894</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>3895</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>3896</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>3897</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>3898</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>3899</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>3900</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>3901</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>3902</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>3903</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>3904</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>3905</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>3906</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>3907</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>3908</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>3909</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>3910</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>3911</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>3912</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>3913</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>3914</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>3915</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>3916</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>3917</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>3918</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>3919</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>3920</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>3921</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>3922</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>3923</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>3924</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>3925</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>3926</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>3927</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>3928</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>3929</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>3930</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>3931</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>3932</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>3933</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>3934</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>3935</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>3936</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>3937</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>3938</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>3939</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>3940</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>3941</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>3942</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>3943</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>3944</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>3945</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>3946</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>3947</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>3948</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>3949</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>3950</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>3951</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>3952</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>3953</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>3954</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>3955</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>3956</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>3957</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>3958</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>3959</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>3960</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>3961</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>3962</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>3963</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>3513</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>3964</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>3965</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>3966</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>3967</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>3968</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>3969</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>3970</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>3971</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3972</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>3973</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>3975</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>3976</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>3977</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>3978</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>3979</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>3980</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>3981</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>3982</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="251" spans="1:1">
@@ -33131,142 +33019,142 @@
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>3983</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>3984</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>3985</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>3986</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>3987</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>3988</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>3989</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>3990</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>3991</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>3992</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>3993</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>3994</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>3995</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>3996</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>3997</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>3998</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>3999</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>4000</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>4001</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>4002</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>4003</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>4004</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>4005</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>4006</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>4007</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>4008</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>4009</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>4010</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="280" spans="1:1">
@@ -33276,17 +33164,17 @@
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>4011</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>2991</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>4012</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -33296,62 +33184,62 @@
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>4013</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>4014</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>4015</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>4016</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>4017</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>4018</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>4019</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>4020</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>4021</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>4022</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>4023</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>4024</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="297" spans="1:1">
@@ -33361,132 +33249,132 @@
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>4025</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>4026</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>4027</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>4028</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>4029</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>4030</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>4031</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>4032</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>4033</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>4034</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>4035</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>4036</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>4037</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>4038</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>4039</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>3568</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>4040</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>4041</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>4042</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>4043</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>4044</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>4045</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>3573</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>4046</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>4047</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>4048</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="324" spans="1:1">
@@ -33496,152 +33384,152 @@
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>4049</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>4050</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>4051</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>4052</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>4053</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>4054</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>4055</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>4056</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>4057</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>4058</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>4059</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>4060</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>4061</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>4062</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>4063</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>4064</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>4065</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>4066</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>4067</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>4068</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>4069</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>4070</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>4071</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>4072</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>4073</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>4074</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>4075</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>4076</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>4077</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>4078</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="355" spans="1:1">
@@ -33651,187 +33539,187 @@
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>4079</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>4080</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>4081</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>4082</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>4083</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>4084</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>4085</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>4086</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>4087</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>4088</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>4089</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>4090</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>4091</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>4092</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>4093</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>4094</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>4095</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>4096</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>4097</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>4098</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>4099</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>4100</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>4101</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>4102</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>4103</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>4104</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>4105</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>4106</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>4107</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>4108</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>4109</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>4110</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>4111</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>4112</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>4113</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>4114</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>4115</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="393" spans="1:1">
@@ -33841,107 +33729,107 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>4116</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>4117</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>4118</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>4119</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>4120</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>4121</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>4122</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>4123</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>4124</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>4125</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>4126</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>4127</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>4128</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>4129</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>4130</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>4131</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>4132</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>4133</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>4134</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>4135</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>4136</v>
+        <v>4122</v>
       </c>
     </row>
   </sheetData>
